--- a/patient_data/patient_76.xlsx
+++ b/patient_data/patient_76.xlsx
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1759,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1913,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1990,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -2067,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2144,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2331,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
